--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1911312.134113982</v>
+        <v>-1913895.16618371</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>305.5778788095317</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103611</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>153.3779859169652</v>
       </c>
       <c r="H4" t="n">
-        <v>38.74310325695903</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>404.2647150730212</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>105.0221052551886</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>202.1599651915513</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>24.13860864400489</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>62.45439117602597</v>
+        <v>107.0120291964068</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.4756842509222</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>255.10286910444</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>125.378940556452</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>148.2350264383945</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678036</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>52.91369288257653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>41.5669313710883</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>108.5813113004306</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>116.2873251119329</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>71.99884436925828</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.82863813027315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>172.364557447425</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149754</v>
+        <v>171.0385136149752</v>
       </c>
       <c r="C28" t="n">
-        <v>158.453354531666</v>
+        <v>158.4533545316657</v>
       </c>
       <c r="D28" t="n">
-        <v>99.46335141264444</v>
+        <v>139.8220064512502</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796073</v>
+        <v>35.00008123174884</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559694</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>156.7306717253067</v>
       </c>
       <c r="H28" t="n">
-        <v>131.501246279262</v>
+        <v>131.5012462792618</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160368</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315982</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.2328194346825</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603264</v>
+        <v>208.6119837603262</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222823</v>
+        <v>277.3910078222821</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568661</v>
+        <v>243.3441767568659</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696291</v>
+        <v>277.7295317696289</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220753</v>
+        <v>216.916188822075</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851329</v>
+        <v>209.7911867851327</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652581</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652558</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1458.811090838974</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.146566788942</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D2" t="n">
-        <v>791.8808681821919</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839476</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839476</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927149</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139988</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878908</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1845.410930903096</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080122</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986289</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.5365116643958</v>
+        <v>518.4459618444146</v>
       </c>
       <c r="C4" t="n">
-        <v>252.5365116643958</v>
+        <v>518.4459618444146</v>
       </c>
       <c r="D4" t="n">
-        <v>252.5365116643958</v>
+        <v>368.3293224320788</v>
       </c>
       <c r="E4" t="n">
-        <v>252.5365116643958</v>
+        <v>368.3293224320788</v>
       </c>
       <c r="F4" t="n">
-        <v>105.6465641664855</v>
+        <v>221.4393749341684</v>
       </c>
       <c r="G4" t="n">
-        <v>105.6465641664855</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962256</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372928</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.35556815965</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588477</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886952</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596436</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181843</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181843</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181843</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181843</v>
       </c>
       <c r="U4" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181843</v>
       </c>
       <c r="V4" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181843</v>
       </c>
       <c r="W4" t="n">
-        <v>252.5365116643958</v>
+        <v>920.8870058181843</v>
       </c>
       <c r="X4" t="n">
-        <v>252.5365116643958</v>
+        <v>920.8870058181844</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.5365116643958</v>
+        <v>700.0944266746543</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1565.440264581601</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1565.440264581601</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1207.174565974851</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>821.3863133766067</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>814.4408126274033</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3109.232218535064</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2778.169331191494</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2425.400675921379</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645723</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,13 +4662,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
         <v>2435.471302619336</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.171619808316</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="W7" t="n">
-        <v>666.202517612298</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X7" t="n">
-        <v>641.8200846385557</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.8200846385557</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140706</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.236214140706</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.236214140706</v>
+        <v>1340.243929312808</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204828</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158139</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4945,64 +4945,64 @@
         <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>442.4147609125939</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>442.4147609125939</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X10" t="n">
-        <v>214.4252100145765</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y10" t="n">
         <v>214.4252100145765</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532801</v>
+        <v>1056.376371837086</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2230.185029894889</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2010.58356491783</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1721.508338262028</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.508338262028</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225067</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3090381835199</v>
+        <v>1238.024836667326</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784062</v>
+        <v>733.4550657171299</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>564.5188827892231</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1380.253191019954</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.263640121936</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784062</v>
+        <v>915.1035305473696</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.5467179762952</v>
+        <v>990.5373202159261</v>
       </c>
       <c r="C19" t="n">
-        <v>815.6105350483883</v>
+        <v>821.6011372880193</v>
       </c>
       <c r="D19" t="n">
-        <v>665.4938956360526</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>517.5808020536595</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>370.6908545557491</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>203.494755270629</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>1166.195182806535</v>
+        <v>990.5373202159262</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057241</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778172</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654816</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830886</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851782</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>1138.603793935964</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,19 +5999,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898186995</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6218,46 +6218,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>837.4110059881257</v>
+        <v>721.6018753906318</v>
       </c>
       <c r="C28" t="n">
-        <v>677.357112521797</v>
+        <v>561.5479819243028</v>
       </c>
       <c r="D28" t="n">
-        <v>576.8890807918532</v>
+        <v>420.313631973545</v>
       </c>
       <c r="E28" t="n">
-        <v>437.8582766710377</v>
+        <v>384.9600145677381</v>
       </c>
       <c r="F28" t="n">
-        <v>299.8506186347049</v>
+        <v>384.9600145677381</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347049</v>
+        <v>226.6462047441959</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384807</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795879</v>
+        <v>182.7582133795882</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064188</v>
+        <v>453.1530078064192</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836508</v>
+        <v>852.2571338836518</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515978</v>
+        <v>1282.972368515979</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077278</v>
+        <v>1709.08777207728</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687556</v>
+        <v>2087.322584687557</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162407</v>
+        <v>2388.703572162408</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790598</v>
+        <v>2516.6073387906</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504578</v>
+        <v>2516.6073387906</v>
       </c>
       <c r="S28" t="n">
-        <v>2458.443924504578</v>
+        <v>2342.634793907082</v>
       </c>
       <c r="T28" t="n">
-        <v>2247.724748989097</v>
+        <v>2131.915618391601</v>
       </c>
       <c r="U28" t="n">
-        <v>1967.531811794872</v>
+        <v>1851.722681197377</v>
       </c>
       <c r="V28" t="n">
-        <v>1721.729613050563</v>
+        <v>1605.920482453068</v>
       </c>
       <c r="W28" t="n">
-        <v>1441.19473247518</v>
+        <v>1325.385601877685</v>
       </c>
       <c r="X28" t="n">
-        <v>1222.08747103874</v>
+        <v>1106.278340441246</v>
       </c>
       <c r="Y28" t="n">
-        <v>1010.177181356788</v>
+        <v>894.3680507592936</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6625,22 +6625,22 @@
         <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,22 +6710,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382518</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656818</v>
@@ -7081,16 +7081,16 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494266</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612593</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319313</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7585,10 +7585,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>59.69501296147587</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>306.4732379112257</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>12.64782234206299</v>
       </c>
       <c r="H4" t="n">
-        <v>106.0119116573619</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -22759,19 +22759,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>41.86788054217585</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>32.79125956325009</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>69.70496293143199</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>233.6093054540145</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>107.0485416471241</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>31.7134015457932</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101216</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>135.8503182118951</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>153.7108110197788</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>8.661728554219552</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.35865503860607</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>102.6404148478582</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6275814559691</v>
       </c>
       <c r="G28" t="n">
-        <v>156.730671725307</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160342</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014315958</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346827</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>82260.24434218733</v>
       </c>
       <c r="C2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="D2" t="n">
         <v>102630.2212330354</v>
@@ -26323,10 +26323,10 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
         <v>100893.3249612508</v>
@@ -26335,25 +26335,25 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>101522.2547944397</v>
+        <v>101522.2547944396</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="P2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,31 +26381,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.975650847</v>
+        <v>224565.9756508471</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006229</v>
+        <v>12392.9447400621</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.77325356944</v>
+        <v>7034.773253569682</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006234</v>
+        <v>12392.94474006208</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>18330.12873445301</v>
+        <v>18330.12873445313</v>
       </c>
       <c r="K4" t="n">
+        <v>23427.49926997316</v>
+      </c>
+      <c r="L4" t="n">
         <v>23427.49926997313</v>
       </c>
-      <c r="L4" t="n">
-        <v>23427.49926997307</v>
-      </c>
       <c r="M4" t="n">
+        <v>23427.49926997313</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23427.49926997313</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23427.49926997313</v>
+      </c>
+      <c r="P4" t="n">
         <v>23427.49926997312</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23427.49926997315</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23427.49926997312</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1355003.088935805</v>
+        <v>-1355410.488473621</v>
       </c>
       <c r="C6" t="n">
-        <v>-98900.46343241051</v>
+        <v>-98900.4634324105</v>
       </c>
       <c r="D6" t="n">
-        <v>-98900.46343241046</v>
+        <v>-98900.4634324105</v>
       </c>
       <c r="E6" t="n">
-        <v>-341078.3066768912</v>
+        <v>-341113.044602327</v>
       </c>
       <c r="F6" t="n">
-        <v>-15665.84486953603</v>
+        <v>-15700.58279497175</v>
       </c>
       <c r="G6" t="n">
-        <v>-15665.84486953604</v>
+        <v>-15700.58279497173</v>
       </c>
       <c r="H6" t="n">
-        <v>-15665.84486953607</v>
+        <v>-15700.58279497173</v>
       </c>
       <c r="I6" t="n">
-        <v>-15665.84486953593</v>
+        <v>-15700.58279497166</v>
       </c>
       <c r="J6" t="n">
-        <v>-243235.6373555854</v>
+        <v>-243257.7966843576</v>
       </c>
       <c r="K6" t="n">
-        <v>-36354.33863091542</v>
+        <v>-36354.33863091518</v>
       </c>
       <c r="L6" t="n">
-        <v>-23961.39389085303</v>
+        <v>-23961.39389085308</v>
       </c>
       <c r="M6" t="n">
-        <v>-109016.4218263648</v>
+        <v>-109016.421826365</v>
       </c>
       <c r="N6" t="n">
-        <v>-23961.39389085316</v>
+        <v>-23961.3938908531</v>
       </c>
       <c r="O6" t="n">
-        <v>-30996.16714442251</v>
+        <v>-30996.1671444228</v>
       </c>
       <c r="P6" t="n">
-        <v>-36354.33863091544</v>
+        <v>-36354.33863091515</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26923,16 +26923,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507787</v>
+        <v>15.49118092507762</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961801</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507792</v>
+        <v>15.4911809250776</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507787</v>
+        <v>15.49118092507762</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.657010580432257</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>145.9730667037134</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>84.05187301406158</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>201.5710467450323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>319.4759788962358</v>
+        <v>274.918340875855</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,19 +28065,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>64.66195907290577</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>31.42012923215103</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962103</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,7 +31850,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>556.7959610899863</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>476.064808938546</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>499.3768644016567</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>679.7882761221643</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>458.6770173132157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>209.2370040367367</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>553.3925020622929</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>689.7436082887205</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>556.5325452335035</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>425.454249006653</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010445</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5104291586719</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>368.0351523183234</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991526</v>
+        <v>89.83994982991547</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765969</v>
+        <v>273.126054976597</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860934</v>
+        <v>403.1354808860935</v>
       </c>
       <c r="M28" t="n">
-        <v>435.065893568007</v>
+        <v>435.0658935680072</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568693</v>
+        <v>430.4195995568695</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730073</v>
+        <v>382.0553662730075</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735869</v>
+        <v>304.425239873587</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668602</v>
+        <v>129.1957238668604</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>548.4465640388311</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>320.8355783388567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>71.39556506237767</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>414.8381222824187</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>547.6095743667022</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>425.1908331501702</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
